--- a/Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -72,27 +72,7 @@
     <t xml:space="preserve">▢ SLAM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Adresse URL du portfolio :  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://zug1506.github.io/Portfolio/</t>
-    </r>
+    <t xml:space="preserve">Adresse URL du portfolio :  https://zug1506.github.io/Portfolio/</t>
   </si>
   <si>
     <t xml:space="preserve">Compétences mises en œuvre
@@ -729,7 +709,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,15 +765,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1084,8 +1064,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1238,10 +1218,10 @@
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
@@ -1250,10 +1230,10 @@
       <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="23"/>
       <c r="H10" s="27"/>
     </row>
@@ -1264,11 +1244,11 @@
       <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="27"/>
     </row>
     <row r="12" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1278,11 +1258,11 @@
       <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="29"/>
     </row>
     <row r="13" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1292,11 +1272,11 @@
       <c r="B13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="29"/>
     </row>
     <row r="14" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1306,11 +1286,11 @@
       <c r="B14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1320,10 +1300,10 @@
       <c r="B15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="23"/>
       <c r="H15" s="29"/>
     </row>
@@ -1334,11 +1314,11 @@
       <c r="B16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1348,11 +1328,11 @@
       <c r="B17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1362,11 +1342,11 @@
       <c r="B18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="29"/>
     </row>
     <row r="19" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1376,11 +1356,11 @@
       <c r="B19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="29"/>
     </row>
     <row r="20" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1390,11 +1370,11 @@
       <c r="B20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1406,10 +1386,10 @@
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
@@ -1418,10 +1398,10 @@
       <c r="B22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="23"/>
       <c r="H22" s="29"/>
     </row>
@@ -1444,11 +1424,11 @@
       <c r="B24" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="29"/>
     </row>
     <row r="25" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1459,7 +1439,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="23"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
@@ -1473,10 +1453,10 @@
         <v>58</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="29"/>
     </row>
     <row r="27" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,11 +1478,11 @@
       <c r="B28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="29"/>
     </row>
     <row r="29" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1512,11 +1492,11 @@
       <c r="B29" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="29"/>
     </row>
     <row r="30" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1526,11 +1506,11 @@
       <c r="B30" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="29"/>
     </row>
     <row r="31" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1540,11 +1520,11 @@
       <c r="B31" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="29"/>
     </row>
     <row r="32" s="17" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1554,11 +1534,11 @@
       <c r="B32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="29"/>
     </row>
     <row r="33" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1620,7 @@
     <mergeCell ref="A27:H27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://zug1506.github.io/Portfolio/"/>
+    <hyperlink ref="A5" r:id="rId1" display="Adresse URL du portfolio :  https://zug1506.github.io/Portfolio/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">SESSION 2023</t>
+    <t xml:space="preserve">SESSION 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
@@ -244,19 +244,19 @@
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t xml:space="preserve">Installation de serveurs dans les racks</t>
+    <t xml:space="preserve">Gestion des services Active Directory (AD)</t>
   </si>
   <si>
     <t xml:space="preserve">11/11/2024 – 12/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre les serveurs dans la baie </t>
+    <t xml:space="preserve">Création et gestion des stratégies de groupe (GPO) </t>
   </si>
   <si>
     <t xml:space="preserve">13/11/2024 – 20/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisation du câblage du réseau </t>
+    <t xml:space="preserve"> Configuration et durcissement des switchs Cisco et HP</t>
   </si>
   <si>
     <t xml:space="preserve">21/11/2024 – 22/11/2024</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Ajout  de disques dans les serveurs </t>
   </si>
   <si>
-    <t xml:space="preserve">Démontage et remontage des ordinateurs </t>
+    <t xml:space="preserve">Surveillance des performances des machines virtuelles sur ESXi</t>
   </si>
   <si>
     <t xml:space="preserve">02/12/2024/ - 06/12/2024</t>
@@ -1064,8 +1064,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
